--- a/Module_6/[A0422I1]_DetailDesign_TriLHH/[A0422i1]_DetailDesign_TriLHH.xlsx
+++ b/Module_6/[A0422I1]_DetailDesign_TriLHH/[A0422i1]_DetailDesign_TriLHH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code_Gym_A0422I1_HuuTri\Module_6\[A0422I1]_DetailDesign_TriLHH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ED998E-5CE9-4E40-B051-1F42591314BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD5E6B7-D93F-4B79-8B41-EF00A831E5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,9 +173,6 @@
     <t>Call method findAllTicketByCustomer(Customer customer) of ticketService instance. This method has an customer parameter of data type Customer and has a return data type of  List&lt;Ticket&gt;</t>
   </si>
   <si>
-    <t>Else NG status in Restful</t>
-  </si>
-  <si>
     <t xml:space="preserve">redirect to page Ticket List </t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>Call method findAllPointDateBetweenByCustomer(idCustomer, startDate  ,endDate ) of pointService instance. return data type of  List&lt;Point&gt;</t>
+  </si>
+  <si>
+    <t>Else NO_CONTENT status in Restful</t>
   </si>
 </sst>
 </file>
@@ -565,22 +565,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:colOff>579120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>678944</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>107110</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Hình ảnh 2">
+        <xdr:cNvPr id="2" name="Hình ảnh 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0334DDAD-9232-D481-96D1-9CEF8AE94459}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6141867F-32D9-F582-E9FC-4D7DF356DED1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -596,8 +596,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2423160" y="632460"/>
-          <a:ext cx="8740140" cy="5440680"/>
+          <a:off x="2956560" y="579120"/>
+          <a:ext cx="8817104" cy="4961050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -613,23 +613,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>378371</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>173420</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>773643</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>13466</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>490615</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Hình ảnh 6">
+        <xdr:cNvPr id="2" name="Hình ảnh 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5B87816-95C0-AFFE-CF31-4B6874020C5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30421CAC-0BFA-3E81-AE9B-270B19F7BB58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -638,21 +638,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1956159" y="352714"/>
-          <a:ext cx="8389111" cy="9880517"/>
+          <a:off x="1562537" y="11914094"/>
+          <a:ext cx="9972596" cy="7808259"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -663,23 +657,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>340659</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>26893</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>500743</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>611841</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>138952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Hình ảnh 10">
+        <xdr:cNvPr id="3" name="Hình ảnh 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888E9D2E-E6AC-3A2F-932A-13F1CA40525D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D8919E-8615-7543-D149-6408616BA76C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -688,21 +682,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1929973" y="11369807"/>
-          <a:ext cx="9695970" cy="7963222"/>
+          <a:off x="1416424" y="394446"/>
+          <a:ext cx="9451041" cy="10143565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -763,49 +751,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>708660</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Hình ảnh 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E9A445-6B2B-9D87-D0E9-FDD60FC18D10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect b="1995"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1501140" y="13136880"/>
-          <a:ext cx="9532620" cy="5989320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>693420</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
@@ -830,7 +775,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -839,6 +784,49 @@
         <a:xfrm>
           <a:off x="1485900" y="6644640"/>
           <a:ext cx="9151620" cy="6332220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>363416</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>128953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Hình ảnh 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB82ECE-2190-FD1D-921F-63F2521F6A06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="59" t="807" r="-59" b="1704"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152310" y="13934600"/>
+          <a:ext cx="9865314" cy="6128412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1149,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1183,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q79" sqref="Q79"/>
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1226,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView topLeftCell="C34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P100" sqref="P100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1273,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -1296,7 +1284,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1317,14 +1305,14 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="14"/>
     </row>
@@ -1356,7 +1344,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1376,7 +1364,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1410,7 +1398,7 @@
     </row>
     <row r="24" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -1433,7 +1421,7 @@
     <row r="28" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="15"/>
       <c r="E28" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -1445,7 +1433,7 @@
     <row r="30" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="15"/>
       <c r="E30" s="20" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -1541,7 +1529,7 @@
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1561,7 +1549,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1577,13 +1565,13 @@
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="14"/>
       <c r="B60" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1603,7 +1591,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1621,7 +1609,7 @@
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1637,7 +1625,7 @@
         <v>8</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1668,14 +1656,14 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B77" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C77" s="16"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B78" s="15"/>
       <c r="C78" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1690,7 +1678,7 @@
     </row>
     <row r="81" spans="2:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B81" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -1708,14 +1696,14 @@
       <c r="B84" s="21"/>
       <c r="C84" s="22"/>
       <c r="D84" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B85" s="21"/>
       <c r="C85" s="22"/>
       <c r="E85" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -1729,7 +1717,7 @@
       <c r="B87" s="21"/>
       <c r="C87" s="22"/>
       <c r="E87" s="20" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -1739,7 +1727,7 @@
     </row>
     <row r="89" spans="2:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B89" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C89" s="22"/>
       <c r="E89" s="21"/>
@@ -1755,7 +1743,7 @@
       <c r="B91" s="21"/>
       <c r="C91" s="22"/>
       <c r="D91" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E91" s="21"/>
     </row>
@@ -1764,7 +1752,7 @@
       <c r="C92" s="22"/>
       <c r="D92" s="22"/>
       <c r="E92" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -1778,7 +1766,7 @@
       <c r="B94" s="21"/>
       <c r="C94" s="22"/>
       <c r="E94" s="20" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="2:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -1788,7 +1776,7 @@
     </row>
     <row r="96" spans="2:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B96" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C96" s="22"/>
       <c r="D96" s="20"/>
